--- a/data/pca/factorExposure/factorExposure_2018-11-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.07250557230661278</v>
+        <v>0.04845788624519941</v>
       </c>
       <c r="C2">
-        <v>-0.05316488217323924</v>
+        <v>0.009615479589105398</v>
       </c>
       <c r="D2">
-        <v>0.07023987192045947</v>
+        <v>-0.02875077473490895</v>
       </c>
       <c r="E2">
-        <v>0.004029735342242626</v>
+        <v>-0.01855674456996449</v>
       </c>
       <c r="F2">
-        <v>0.1230191714276366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03090507793522698</v>
+      </c>
+      <c r="G2">
+        <v>0.1082428650011781</v>
+      </c>
+      <c r="H2">
+        <v>0.06982022209479345</v>
+      </c>
+      <c r="I2">
+        <v>0.06504786511730079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2078180126666614</v>
+        <v>0.1317622395465437</v>
       </c>
       <c r="C3">
-        <v>0.009616224321207211</v>
+        <v>-0.02955420724246612</v>
       </c>
       <c r="D3">
-        <v>0.1209536373213855</v>
+        <v>-0.05366793134249886</v>
       </c>
       <c r="E3">
-        <v>0.01416422181921088</v>
+        <v>-0.01534683778663977</v>
       </c>
       <c r="F3">
-        <v>0.3980661562505806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.0293653490638844</v>
+      </c>
+      <c r="G3">
+        <v>0.3659109678885059</v>
+      </c>
+      <c r="H3">
+        <v>0.2270885590986626</v>
+      </c>
+      <c r="I3">
+        <v>0.0416105744951408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.06464336734647406</v>
+        <v>0.05659436134696048</v>
       </c>
       <c r="C4">
-        <v>-0.02769291843675721</v>
+        <v>0.001687290761736381</v>
       </c>
       <c r="D4">
-        <v>0.05623825584566629</v>
+        <v>-0.04257580163916902</v>
       </c>
       <c r="E4">
-        <v>0.05339851205998135</v>
+        <v>0.01514047600061865</v>
       </c>
       <c r="F4">
-        <v>0.05822765266317491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.05360639376578077</v>
+      </c>
+      <c r="G4">
+        <v>0.062733571267063</v>
+      </c>
+      <c r="H4">
+        <v>0.02435472395399295</v>
+      </c>
+      <c r="I4">
+        <v>0.0397934159609783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.006452733137188321</v>
+        <v>0.03217812463399584</v>
       </c>
       <c r="C6">
-        <v>-0.002350365015542402</v>
+        <v>0.002225049156332269</v>
       </c>
       <c r="D6">
-        <v>0.001061855621061948</v>
+        <v>-0.02151857682094999</v>
       </c>
       <c r="E6">
-        <v>-0.004953710076420572</v>
+        <v>0.003303050745751838</v>
       </c>
       <c r="F6">
-        <v>0.0008287244091362931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.0218762580831029</v>
+      </c>
+      <c r="G6">
+        <v>0.01358025445622118</v>
+      </c>
+      <c r="H6">
+        <v>-0.03756545413723782</v>
+      </c>
+      <c r="I6">
+        <v>-0.0111078230262806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03217993583911654</v>
+        <v>0.02860561982167547</v>
       </c>
       <c r="C7">
-        <v>-0.02179838270721282</v>
+        <v>0.001093236996562607</v>
       </c>
       <c r="D7">
-        <v>0.04333382238029548</v>
+        <v>-0.0093492265596397</v>
       </c>
       <c r="E7">
-        <v>0.006722860754750392</v>
+        <v>0.03386492254460583</v>
       </c>
       <c r="F7">
-        <v>0.0733986659661699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02536520882240664</v>
+      </c>
+      <c r="G7">
+        <v>0.05282885357378914</v>
+      </c>
+      <c r="H7">
+        <v>0.04871249050260779</v>
+      </c>
+      <c r="I7">
+        <v>0.002950629409817204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03886765487492034</v>
+        <v>0.01219754349217333</v>
       </c>
       <c r="C8">
-        <v>0.0009825673801722235</v>
+        <v>-0.005937520363084897</v>
       </c>
       <c r="D8">
-        <v>0.04428280617162147</v>
+        <v>-0.03986605913481351</v>
       </c>
       <c r="E8">
-        <v>0.04339094635088347</v>
+        <v>0.01117463785268792</v>
       </c>
       <c r="F8">
-        <v>0.07672527532702872</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01608496874609766</v>
+      </c>
+      <c r="G8">
+        <v>0.0685417168171263</v>
+      </c>
+      <c r="H8">
+        <v>0.05431446774868695</v>
+      </c>
+      <c r="I8">
+        <v>0.03545269345777485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.05309662719890729</v>
+        <v>0.04466177859635233</v>
       </c>
       <c r="C9">
-        <v>-0.02724678395578892</v>
+        <v>-0.002639434943543097</v>
       </c>
       <c r="D9">
-        <v>0.03922962723762043</v>
+        <v>-0.02923519723219166</v>
       </c>
       <c r="E9">
-        <v>0.0601927732236927</v>
+        <v>0.01547585026206593</v>
       </c>
       <c r="F9">
-        <v>0.05428878875195882</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.03725576667397894</v>
+      </c>
+      <c r="G9">
+        <v>0.07649313573557627</v>
+      </c>
+      <c r="H9">
+        <v>0.02822698455188273</v>
+      </c>
+      <c r="I9">
+        <v>0.04337593242848675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03436992515527795</v>
+        <v>0.05787979702077194</v>
       </c>
       <c r="C10">
-        <v>-0.08223245744160312</v>
+        <v>-0.001370316078382311</v>
       </c>
       <c r="D10">
-        <v>-0.1108153576159731</v>
+        <v>0.161146791115945</v>
       </c>
       <c r="E10">
-        <v>-0.09486960496337683</v>
+        <v>-0.02232827520616002</v>
       </c>
       <c r="F10">
-        <v>0.05353349193723058</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04463146044315608</v>
+      </c>
+      <c r="G10">
+        <v>0.04355745242915038</v>
+      </c>
+      <c r="H10">
+        <v>0.02766421014371502</v>
+      </c>
+      <c r="I10">
+        <v>0.03888883598634351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.04535665414223702</v>
+        <v>0.03395001621971258</v>
       </c>
       <c r="C11">
-        <v>-0.005480008953161349</v>
+        <v>-0.01328831469437111</v>
       </c>
       <c r="D11">
-        <v>0.03126494397858801</v>
+        <v>-0.03270166054947991</v>
       </c>
       <c r="E11">
-        <v>0.01169488569443577</v>
+        <v>-0.005837999055212657</v>
       </c>
       <c r="F11">
-        <v>0.04214916797349671</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01034249288583333</v>
+      </c>
+      <c r="G11">
+        <v>0.04560365733035349</v>
+      </c>
+      <c r="H11">
+        <v>0.007749104043782391</v>
+      </c>
+      <c r="I11">
+        <v>0.01981658158917242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04502310568635644</v>
+        <v>0.03842603402125958</v>
       </c>
       <c r="C12">
-        <v>-0.007119973699066168</v>
+        <v>-0.01003333535016577</v>
       </c>
       <c r="D12">
-        <v>0.02878754333286291</v>
+        <v>-0.0324874455958143</v>
       </c>
       <c r="E12">
-        <v>0.03067648222059486</v>
+        <v>0.005697749806114608</v>
       </c>
       <c r="F12">
-        <v>0.02789036147811565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01947970381121534</v>
+      </c>
+      <c r="G12">
+        <v>0.01680012134328823</v>
+      </c>
+      <c r="H12">
+        <v>0.0040804845902316</v>
+      </c>
+      <c r="I12">
+        <v>0.007026455671441918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04979658235160133</v>
+        <v>0.03753394387804848</v>
       </c>
       <c r="C13">
-        <v>-0.0192312371774899</v>
+        <v>0.01054026176963018</v>
       </c>
       <c r="D13">
-        <v>0.04849404128017337</v>
+        <v>-0.02033039752135362</v>
       </c>
       <c r="E13">
-        <v>-0.01858617758100085</v>
+        <v>-0.01925289673825262</v>
       </c>
       <c r="F13">
-        <v>0.1113156936604388</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.009977311635397463</v>
+      </c>
+      <c r="G13">
+        <v>0.09148965318156713</v>
+      </c>
+      <c r="H13">
+        <v>0.03289208644545554</v>
+      </c>
+      <c r="I13">
+        <v>0.03256541930580569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02492100091874666</v>
+        <v>0.02061214281644386</v>
       </c>
       <c r="C14">
-        <v>-0.01816155792847916</v>
+        <v>-0.0008852189648777383</v>
       </c>
       <c r="D14">
-        <v>0.03949442136819584</v>
+        <v>-0.01419559434960629</v>
       </c>
       <c r="E14">
-        <v>0.0209782091208123</v>
+        <v>0.005665724104446865</v>
       </c>
       <c r="F14">
-        <v>0.03891372844773579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02792018152252466</v>
+      </c>
+      <c r="G14">
+        <v>0.04117261075264322</v>
+      </c>
+      <c r="H14">
+        <v>0.06504587828768944</v>
+      </c>
+      <c r="I14">
+        <v>0.01727403891249262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.03757294135430477</v>
+        <v>0.03195805472981762</v>
       </c>
       <c r="C16">
-        <v>-0.005229911793417892</v>
+        <v>-0.01206014594527426</v>
       </c>
       <c r="D16">
-        <v>0.02693675899621794</v>
+        <v>-0.03087622799677495</v>
       </c>
       <c r="E16">
-        <v>0.01201313169223746</v>
+        <v>-0.0003754091656670334</v>
       </c>
       <c r="F16">
-        <v>0.03395088786368588</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01690424009949832</v>
+      </c>
+      <c r="G16">
+        <v>0.03547627022646793</v>
+      </c>
+      <c r="H16">
+        <v>0.007163910990490969</v>
+      </c>
+      <c r="I16">
+        <v>0.008217759680581653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05728766859033508</v>
+        <v>0.04220344498355794</v>
       </c>
       <c r="C19">
-        <v>0.002124341576700624</v>
+        <v>-0.002750012093908644</v>
       </c>
       <c r="D19">
-        <v>0.03937533421862795</v>
+        <v>-0.0355339285505711</v>
       </c>
       <c r="E19">
-        <v>0.002010464114931757</v>
+        <v>-0.006181701204874974</v>
       </c>
       <c r="F19">
-        <v>0.08412643057804778</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.01441385819669498</v>
+      </c>
+      <c r="G19">
+        <v>0.0872042046394676</v>
+      </c>
+      <c r="H19">
+        <v>0.04666932041349794</v>
+      </c>
+      <c r="I19">
+        <v>0.02187104010728742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01710222507835774</v>
+        <v>0.01226360378288057</v>
       </c>
       <c r="C20">
-        <v>-0.009365083867357571</v>
+        <v>0.004331656519645059</v>
       </c>
       <c r="D20">
-        <v>0.04282041325419182</v>
+        <v>-0.01973730084830508</v>
       </c>
       <c r="E20">
-        <v>0.0298300824791642</v>
+        <v>0.003189940179908241</v>
       </c>
       <c r="F20">
-        <v>0.06665651332395486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01720741546583947</v>
+      </c>
+      <c r="G20">
+        <v>0.05496376147735798</v>
+      </c>
+      <c r="H20">
+        <v>0.05702432920463866</v>
+      </c>
+      <c r="I20">
+        <v>0.01122273965949513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01564825789293839</v>
+        <v>0.0243263033273732</v>
       </c>
       <c r="C21">
-        <v>0.007312772495020806</v>
+        <v>0.007229912549402873</v>
       </c>
       <c r="D21">
-        <v>0.03853734852531958</v>
+        <v>-0.01904079275083619</v>
       </c>
       <c r="E21">
-        <v>0.01436106674514407</v>
+        <v>0.0107171251263084</v>
       </c>
       <c r="F21">
-        <v>0.08017712990288166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.005808074570773463</v>
+      </c>
+      <c r="G21">
+        <v>0.0706686959803417</v>
+      </c>
+      <c r="H21">
+        <v>0.03506464502027058</v>
+      </c>
+      <c r="I21">
+        <v>0.06074255323342732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03492761597986201</v>
+        <v>0.03048331755088514</v>
       </c>
       <c r="C24">
-        <v>-0.004846503953353782</v>
+        <v>-0.007889743147178031</v>
       </c>
       <c r="D24">
-        <v>0.02418274839937902</v>
+        <v>-0.02807598463314074</v>
       </c>
       <c r="E24">
-        <v>0.01253558160118682</v>
+        <v>1.063169888793383e-05</v>
       </c>
       <c r="F24">
-        <v>0.0440515591717055</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.01217211974987365</v>
+      </c>
+      <c r="G24">
+        <v>0.03773831548295985</v>
+      </c>
+      <c r="H24">
+        <v>0.003925412849855017</v>
+      </c>
+      <c r="I24">
+        <v>0.01290606989497607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03916074139894786</v>
+        <v>0.04026830230349699</v>
       </c>
       <c r="C25">
-        <v>-0.006095791494621831</v>
+        <v>-0.005417202087707592</v>
       </c>
       <c r="D25">
-        <v>0.0276943321381797</v>
+        <v>-0.02955321391353764</v>
       </c>
       <c r="E25">
-        <v>0.01878634286562229</v>
+        <v>2.503785766841822e-05</v>
       </c>
       <c r="F25">
-        <v>0.05041305865419177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01632951465296101</v>
+      </c>
+      <c r="G25">
+        <v>0.04452574850485221</v>
+      </c>
+      <c r="H25">
+        <v>-0.002425623687369067</v>
+      </c>
+      <c r="I25">
+        <v>0.01848625542231765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01788037091289406</v>
+        <v>0.01506823763974264</v>
       </c>
       <c r="C26">
-        <v>0.005699017100831301</v>
+        <v>0.01955589598381181</v>
       </c>
       <c r="D26">
-        <v>0.04921526046543221</v>
+        <v>-0.02229127117132748</v>
       </c>
       <c r="E26">
-        <v>-0.0007858001457109976</v>
+        <v>-0.005016141690648794</v>
       </c>
       <c r="F26">
-        <v>0.05000795549841601</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.002680848739980646</v>
+      </c>
+      <c r="G26">
+        <v>0.04941070501011598</v>
+      </c>
+      <c r="H26">
+        <v>0.04101217506919386</v>
+      </c>
+      <c r="I26">
+        <v>0.01530579835694019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1028967424151269</v>
+        <v>0.05447297786069838</v>
       </c>
       <c r="C27">
-        <v>-0.04228337665241692</v>
+        <v>-0.01812878622489199</v>
       </c>
       <c r="D27">
-        <v>0.03410030299778167</v>
+        <v>-0.0146086522608026</v>
       </c>
       <c r="E27">
-        <v>0.03215338771400057</v>
+        <v>-0.0009226623263835713</v>
       </c>
       <c r="F27">
-        <v>0.05636213608237911</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.02165108132141353</v>
+      </c>
+      <c r="G27">
+        <v>0.04684833291144196</v>
+      </c>
+      <c r="H27">
+        <v>0.03332150612189543</v>
+      </c>
+      <c r="I27">
+        <v>0.01946243645853936</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04900760548684617</v>
+        <v>0.0859618455825433</v>
       </c>
       <c r="C28">
-        <v>-0.103887154621751</v>
+        <v>0.007877081740384019</v>
       </c>
       <c r="D28">
-        <v>-0.1831413304969662</v>
+        <v>0.245053216571866</v>
       </c>
       <c r="E28">
-        <v>-0.1314485440217875</v>
+        <v>-0.02530473415215234</v>
       </c>
       <c r="F28">
-        <v>0.02485954102841088</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.06653680927025012</v>
+      </c>
+      <c r="G28">
+        <v>0.02221412626893603</v>
+      </c>
+      <c r="H28">
+        <v>0.048409246499604</v>
+      </c>
+      <c r="I28">
+        <v>0.03159565299176126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02406862419049433</v>
+        <v>0.02110335361977482</v>
       </c>
       <c r="C29">
-        <v>-0.01239362014782717</v>
+        <v>-0.001360679943811144</v>
       </c>
       <c r="D29">
-        <v>0.0395715636195841</v>
+        <v>-0.01553391305737836</v>
       </c>
       <c r="E29">
-        <v>0.03427836556770819</v>
+        <v>0.007861331681926374</v>
       </c>
       <c r="F29">
-        <v>0.02308531861922534</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03026118058394558</v>
+      </c>
+      <c r="G29">
+        <v>0.03573396555553161</v>
+      </c>
+      <c r="H29">
+        <v>0.06523654642067821</v>
+      </c>
+      <c r="I29">
+        <v>0.01617690652174691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.09491967249174516</v>
+        <v>0.07614232842914433</v>
       </c>
       <c r="C30">
-        <v>-0.0550578578646964</v>
+        <v>-0.001736033930338409</v>
       </c>
       <c r="D30">
-        <v>0.06556765838954987</v>
+        <v>-0.05095041460385585</v>
       </c>
       <c r="E30">
-        <v>0.01680597555615444</v>
+        <v>-0.04297645654154985</v>
       </c>
       <c r="F30">
-        <v>0.09583284601362849</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.053097788638585</v>
+      </c>
+      <c r="G30">
+        <v>0.09664432679676509</v>
+      </c>
+      <c r="H30">
+        <v>0.007857603228116562</v>
+      </c>
+      <c r="I30">
+        <v>-0.0003492781744932618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06081847487476162</v>
+        <v>0.05486043029644024</v>
       </c>
       <c r="C31">
-        <v>-0.01990592440698617</v>
+        <v>-0.01379211133924395</v>
       </c>
       <c r="D31">
-        <v>0.03418902464144184</v>
+        <v>-0.0139922685865035</v>
       </c>
       <c r="E31">
-        <v>-0.02557746424696875</v>
+        <v>-0.01041447794796066</v>
       </c>
       <c r="F31">
-        <v>-0.01173357411613029</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01581617897124974</v>
+      </c>
+      <c r="G31">
+        <v>0.01070028976659635</v>
+      </c>
+      <c r="H31">
+        <v>0.06105444752673635</v>
+      </c>
+      <c r="I31">
+        <v>0.04758398212289811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.05120210379136739</v>
+        <v>0.02459520941495044</v>
       </c>
       <c r="C32">
-        <v>-0.01886635056148541</v>
+        <v>-0.02016379038454409</v>
       </c>
       <c r="D32">
-        <v>0.04844774930213708</v>
+        <v>-0.02925389385702423</v>
       </c>
       <c r="E32">
-        <v>0.03300855328748478</v>
+        <v>0.0123130067273604</v>
       </c>
       <c r="F32">
-        <v>0.07256990722834042</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04179032802819115</v>
+      </c>
+      <c r="G32">
+        <v>0.08082748578133327</v>
+      </c>
+      <c r="H32">
+        <v>0.004543947642574517</v>
+      </c>
+      <c r="I32">
+        <v>0.01076211956500845</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.05313965568764344</v>
+        <v>0.0432466392378835</v>
       </c>
       <c r="C33">
-        <v>0.0014779999630687</v>
+        <v>-0.003131431694772075</v>
       </c>
       <c r="D33">
-        <v>0.07282874841734938</v>
+        <v>-0.04571242622859763</v>
       </c>
       <c r="E33">
-        <v>0.01418141191904105</v>
+        <v>-0.02161074328632255</v>
       </c>
       <c r="F33">
-        <v>0.07531518125109388</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.007049841183936221</v>
+      </c>
+      <c r="G33">
+        <v>0.07424084220370515</v>
+      </c>
+      <c r="H33">
+        <v>0.0502477643714085</v>
+      </c>
+      <c r="I33">
+        <v>0.04061104070510274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.03895668330964586</v>
+        <v>0.03311305307211865</v>
       </c>
       <c r="C34">
-        <v>-0.01258204231787319</v>
+        <v>-0.02169483602045988</v>
       </c>
       <c r="D34">
-        <v>0.03153031585380064</v>
+        <v>-0.02950807591281967</v>
       </c>
       <c r="E34">
-        <v>0.01840423091792532</v>
+        <v>0.004652218273272972</v>
       </c>
       <c r="F34">
-        <v>0.04174826469716383</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02308024199760256</v>
+      </c>
+      <c r="G34">
+        <v>0.03995183029866517</v>
+      </c>
+      <c r="H34">
+        <v>0.003264400970942788</v>
+      </c>
+      <c r="I34">
+        <v>0.01487658687889058</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01564705545706954</v>
+        <v>0.01832821355777547</v>
       </c>
       <c r="C36">
-        <v>-0.01399546214864803</v>
+        <v>0.005193129674561476</v>
       </c>
       <c r="D36">
-        <v>0.008220635634071119</v>
+        <v>0.001917092825347667</v>
       </c>
       <c r="E36">
-        <v>0.006470843350961927</v>
+        <v>0.00137593569784006</v>
       </c>
       <c r="F36">
-        <v>0.02539170177870174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.010604118945382</v>
+      </c>
+      <c r="G36">
+        <v>0.03062264649631264</v>
+      </c>
+      <c r="H36">
+        <v>0.03712015418238496</v>
+      </c>
+      <c r="I36">
+        <v>0.02571148756853223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.01046597988914487</v>
+        <v>0.01677863155217932</v>
       </c>
       <c r="C38">
-        <v>-0.005759565288966671</v>
+        <v>-0.01186326116299026</v>
       </c>
       <c r="D38">
-        <v>-0.01035360237332562</v>
+        <v>-0.001696519408564702</v>
       </c>
       <c r="E38">
-        <v>0.004425225783652417</v>
+        <v>0.0040291690012701</v>
       </c>
       <c r="F38">
-        <v>0.02558986890820744</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.0003872834813479504</v>
+      </c>
+      <c r="G38">
+        <v>0.04260447427728902</v>
+      </c>
+      <c r="H38">
+        <v>0.02899972367254103</v>
+      </c>
+      <c r="I38">
+        <v>0.03017099035564619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.05276316280694014</v>
+        <v>0.03873425442508611</v>
       </c>
       <c r="C39">
-        <v>-0.01190198602336221</v>
+        <v>-0.01028736927252355</v>
       </c>
       <c r="D39">
-        <v>0.04884197085483887</v>
+        <v>-0.05209885511870719</v>
       </c>
       <c r="E39">
-        <v>0.008710533787629609</v>
+        <v>-0.004722928272071284</v>
       </c>
       <c r="F39">
-        <v>0.03196938812011986</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.02783823321099841</v>
+      </c>
+      <c r="G39">
+        <v>0.05466506143470085</v>
+      </c>
+      <c r="H39">
+        <v>-0.006159407979519056</v>
+      </c>
+      <c r="I39">
+        <v>0.02373025074476343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.05624507797071364</v>
+        <v>0.04575135654125971</v>
       </c>
       <c r="C40">
-        <v>-0.03303729225512628</v>
+        <v>-0.005032530560828808</v>
       </c>
       <c r="D40">
-        <v>0.07525444230119803</v>
+        <v>-0.03890564796454428</v>
       </c>
       <c r="E40">
-        <v>-0.01202172713276094</v>
+        <v>-0.02467355403334144</v>
       </c>
       <c r="F40">
-        <v>0.08151736620535752</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03055649999360011</v>
+      </c>
+      <c r="G40">
+        <v>0.07437098190413587</v>
+      </c>
+      <c r="H40">
+        <v>0.03302703807822305</v>
+      </c>
+      <c r="I40">
+        <v>0.03358519118806799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01210128481201337</v>
+        <v>0.0002062901634877209</v>
       </c>
       <c r="C41">
-        <v>0.005893451417477518</v>
+        <v>0.003811244178474476</v>
       </c>
       <c r="D41">
-        <v>0.02534508642772971</v>
+        <v>-0.002442124856878545</v>
       </c>
       <c r="E41">
-        <v>0.01951737442465498</v>
+        <v>0.0006413293308808516</v>
       </c>
       <c r="F41">
-        <v>-0.008193956378785526</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.00529211270134626</v>
+      </c>
+      <c r="G41">
+        <v>0.006388044941814807</v>
+      </c>
+      <c r="H41">
+        <v>0.05739716036527567</v>
+      </c>
+      <c r="I41">
+        <v>0.03943422042362307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.3722551321311389</v>
+        <v>0.2540794979014506</v>
       </c>
       <c r="C42">
-        <v>0.8605161014283883</v>
+        <v>0.06637335216693657</v>
       </c>
       <c r="D42">
-        <v>-0.1453455351918999</v>
+        <v>-0.36161877642277</v>
       </c>
       <c r="E42">
-        <v>-0.2518732804400561</v>
+        <v>-0.01740814708764838</v>
       </c>
       <c r="F42">
-        <v>-0.06856843560647932</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8637190069117288</v>
+      </c>
+      <c r="G42">
+        <v>-0.1663112808315546</v>
+      </c>
+      <c r="H42">
+        <v>-0.01045811607208911</v>
+      </c>
+      <c r="I42">
+        <v>0.006520154436711315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.01093772667260176</v>
+        <v>0.0002853803761064445</v>
       </c>
       <c r="C43">
-        <v>0.004456568210325213</v>
+        <v>0.007841326597275804</v>
       </c>
       <c r="D43">
-        <v>0.02565697212767348</v>
+        <v>-0.002694515450690971</v>
       </c>
       <c r="E43">
-        <v>0.007121391732154029</v>
+        <v>-0.002941501920110001</v>
       </c>
       <c r="F43">
-        <v>0.03070188812321434</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.001775431888210218</v>
+      </c>
+      <c r="G43">
+        <v>0.0215381092376973</v>
+      </c>
+      <c r="H43">
+        <v>0.05026292102137323</v>
+      </c>
+      <c r="I43">
+        <v>0.02147004836884281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.03063800499013049</v>
+        <v>0.01555599803368713</v>
       </c>
       <c r="C44">
-        <v>-0.0002333200712289608</v>
+        <v>-0.0008274781122391732</v>
       </c>
       <c r="D44">
-        <v>0.05871024730093429</v>
+        <v>-0.02770755357188061</v>
       </c>
       <c r="E44">
-        <v>0.01883174633897264</v>
+        <v>0.002534875805266675</v>
       </c>
       <c r="F44">
-        <v>0.1286583948898578</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.00350951545139085</v>
+      </c>
+      <c r="G44">
+        <v>0.1149606662876668</v>
+      </c>
+      <c r="H44">
+        <v>0.09408602285978866</v>
+      </c>
+      <c r="I44">
+        <v>0.04516813935423886</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02640380766323585</v>
+        <v>0.02043966255562992</v>
       </c>
       <c r="C46">
-        <v>-0.01082649684056158</v>
+        <v>0.002369908309401948</v>
       </c>
       <c r="D46">
-        <v>0.05403039410563767</v>
+        <v>-0.0296920963185742</v>
       </c>
       <c r="E46">
-        <v>0.02310487985653455</v>
+        <v>-0.003896524232380204</v>
       </c>
       <c r="F46">
-        <v>0.01943276538519724</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03342445949066805</v>
+      </c>
+      <c r="G46">
+        <v>0.04968670208678538</v>
+      </c>
+      <c r="H46">
+        <v>0.0671208963842105</v>
+      </c>
+      <c r="I46">
+        <v>0.01165231178962673</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09202926219281378</v>
+        <v>0.08244922934607965</v>
       </c>
       <c r="C47">
-        <v>-0.03069189948451155</v>
+        <v>-0.03020676277649248</v>
       </c>
       <c r="D47">
-        <v>0.03526736347500505</v>
+        <v>-0.02269419290767091</v>
       </c>
       <c r="E47">
-        <v>0.01688957513518045</v>
+        <v>-0.005912772817935378</v>
       </c>
       <c r="F47">
-        <v>-0.02943336751605749</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02876250356451789</v>
+      </c>
+      <c r="G47">
+        <v>-0.01849243612428231</v>
+      </c>
+      <c r="H47">
+        <v>0.07222244007315347</v>
+      </c>
+      <c r="I47">
+        <v>0.03444475822670471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.0119401263861025</v>
+        <v>0.01787704020287708</v>
       </c>
       <c r="C48">
-        <v>-0.008795145177664408</v>
+        <v>-0.005599084155638331</v>
       </c>
       <c r="D48">
-        <v>0.02999927596693358</v>
+        <v>-0.008134662663039449</v>
       </c>
       <c r="E48">
-        <v>0.01163414178236325</v>
+        <v>-0.0007289047125600537</v>
       </c>
       <c r="F48">
-        <v>0.0392034513564701</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01224926831707489</v>
+      </c>
+      <c r="G48">
+        <v>0.03380034092637786</v>
+      </c>
+      <c r="H48">
+        <v>0.03319434142054854</v>
+      </c>
+      <c r="I48">
+        <v>0.01732099263066791</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08833318836022709</v>
+        <v>0.07757697921105307</v>
       </c>
       <c r="C50">
-        <v>-0.01005170551704455</v>
+        <v>-0.02463005817903878</v>
       </c>
       <c r="D50">
-        <v>0.0400252569553218</v>
+        <v>-0.03632314072620151</v>
       </c>
       <c r="E50">
-        <v>0.00637526069480632</v>
+        <v>0.008109245765771085</v>
       </c>
       <c r="F50">
-        <v>-0.01937751910411994</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01503269119466401</v>
+      </c>
+      <c r="G50">
+        <v>0.007577262809087014</v>
+      </c>
+      <c r="H50">
+        <v>0.05836814896809917</v>
+      </c>
+      <c r="I50">
+        <v>-0.0007379184644021797</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.04644574646918226</v>
+        <v>0.0256856601641737</v>
       </c>
       <c r="C51">
-        <v>-0.001878061410014526</v>
+        <v>0.0009302033309877288</v>
       </c>
       <c r="D51">
-        <v>0.02231777142297518</v>
+        <v>0.006929057720966601</v>
       </c>
       <c r="E51">
-        <v>-0.04335297489375629</v>
+        <v>-0.0123371924765478</v>
       </c>
       <c r="F51">
-        <v>0.08250315258373353</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0169374544493509</v>
+      </c>
+      <c r="G51">
+        <v>0.0867983404585474</v>
+      </c>
+      <c r="H51">
+        <v>0.08142623762760652</v>
+      </c>
+      <c r="I51">
+        <v>0.05420189845773699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1173803851394879</v>
+        <v>0.1082596576077032</v>
       </c>
       <c r="C53">
-        <v>-0.02921466139241911</v>
+        <v>-0.03999420866711099</v>
       </c>
       <c r="D53">
-        <v>0.07138978598772368</v>
+        <v>-0.05488068521109397</v>
       </c>
       <c r="E53">
-        <v>0.01930340886099013</v>
+        <v>-0.004476162415885771</v>
       </c>
       <c r="F53">
-        <v>-0.06958754576990976</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05512839559863965</v>
+      </c>
+      <c r="G53">
+        <v>-0.0526490151455265</v>
+      </c>
+      <c r="H53">
+        <v>0.02739133006436554</v>
+      </c>
+      <c r="I53">
+        <v>0.01578099900680466</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01966740747505093</v>
+        <v>0.02055614920962367</v>
       </c>
       <c r="C54">
-        <v>-0.0236016245034472</v>
+        <v>-0.00998667539262856</v>
       </c>
       <c r="D54">
-        <v>0.02493011572216988</v>
+        <v>0.004931195787857125</v>
       </c>
       <c r="E54">
-        <v>0.01805938118290846</v>
+        <v>0.001864053415046232</v>
       </c>
       <c r="F54">
-        <v>0.03516045974399834</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02337746890871121</v>
+      </c>
+      <c r="G54">
+        <v>0.04083332434122704</v>
+      </c>
+      <c r="H54">
+        <v>0.07131527874897892</v>
+      </c>
+      <c r="I54">
+        <v>0.03088098284473012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.101636346127399</v>
+        <v>0.09165136671249333</v>
       </c>
       <c r="C55">
-        <v>-0.02803875212025514</v>
+        <v>-0.03699765030323345</v>
       </c>
       <c r="D55">
-        <v>0.01881440023104795</v>
+        <v>-0.04447491604450422</v>
       </c>
       <c r="E55">
-        <v>0.04415764939276353</v>
+        <v>0.009888012142206599</v>
       </c>
       <c r="F55">
-        <v>-0.05212098329998665</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.0430767234906481</v>
+      </c>
+      <c r="G55">
+        <v>-0.0432967714619006</v>
+      </c>
+      <c r="H55">
+        <v>0.03616530121483744</v>
+      </c>
+      <c r="I55">
+        <v>-0.009604562619194922</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1361778218606857</v>
+        <v>0.1419034009943154</v>
       </c>
       <c r="C56">
-        <v>-0.06900259510381647</v>
+        <v>-0.05885683777464205</v>
       </c>
       <c r="D56">
-        <v>0.04984381612185801</v>
+        <v>-0.04817636242846792</v>
       </c>
       <c r="E56">
-        <v>0.04998512953922367</v>
+        <v>-3.138146029129282e-05</v>
       </c>
       <c r="F56">
-        <v>-0.1198933606204998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.08182585586866491</v>
+      </c>
+      <c r="G56">
+        <v>-0.09844468318314419</v>
+      </c>
+      <c r="H56">
+        <v>-0.005273143396824552</v>
+      </c>
+      <c r="I56">
+        <v>-0.01595339497018546</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.05986272509976587</v>
+        <v>0.05392393363842755</v>
       </c>
       <c r="C57">
-        <v>-0.01755652316017723</v>
+        <v>0.006418060566138021</v>
       </c>
       <c r="D57">
-        <v>0.0455783572680961</v>
+        <v>-0.02624106736624311</v>
       </c>
       <c r="E57">
-        <v>-0.01496373520843762</v>
+        <v>-0.01745543433292581</v>
       </c>
       <c r="F57">
-        <v>0.07485892695168447</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.004534201093903957</v>
+      </c>
+      <c r="G57">
+        <v>0.05909434439616891</v>
+      </c>
+      <c r="H57">
+        <v>0.02941717027203579</v>
+      </c>
+      <c r="I57">
+        <v>0.02077470207379247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2248974553914769</v>
+        <v>0.177257885809868</v>
       </c>
       <c r="C58">
-        <v>-0.04540896477437021</v>
+        <v>-0.04997767368499056</v>
       </c>
       <c r="D58">
-        <v>0.1292347843525654</v>
+        <v>-0.09931744269120853</v>
       </c>
       <c r="E58">
-        <v>-0.006944003825980121</v>
+        <v>-0.1099197024557381</v>
       </c>
       <c r="F58">
-        <v>0.2451765564804108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.02414209547892386</v>
+      </c>
+      <c r="G58">
+        <v>0.4231594663966111</v>
+      </c>
+      <c r="H58">
+        <v>0.3526440300659013</v>
+      </c>
+      <c r="I58">
+        <v>-0.416949483827309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.04818913023113777</v>
+        <v>0.08757337832661859</v>
       </c>
       <c r="C59">
-        <v>-0.1209905305603527</v>
+        <v>0.004070978464039785</v>
       </c>
       <c r="D59">
-        <v>-0.1286365731489082</v>
+        <v>0.2145434346479255</v>
       </c>
       <c r="E59">
-        <v>-0.08182970849221147</v>
+        <v>-0.03935258365501926</v>
       </c>
       <c r="F59">
-        <v>0.01758176194845707</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.02657807272493375</v>
+      </c>
+      <c r="G59">
+        <v>0.04461663017465469</v>
+      </c>
+      <c r="H59">
+        <v>0.0219672992765296</v>
+      </c>
+      <c r="I59">
+        <v>0.02622017723868972</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1711999074033448</v>
+        <v>0.1879904838673722</v>
       </c>
       <c r="C60">
-        <v>-0.08410004288232983</v>
+        <v>-0.03108754203054453</v>
       </c>
       <c r="D60">
-        <v>0.01399304786332442</v>
+        <v>0.02928888593089233</v>
       </c>
       <c r="E60">
-        <v>-0.08648070190725879</v>
+        <v>-0.0723078734263965</v>
       </c>
       <c r="F60">
-        <v>0.1426431295132292</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.0188442998398714</v>
+      </c>
+      <c r="G60">
+        <v>0.1973488173056987</v>
+      </c>
+      <c r="H60">
+        <v>-0.3666071187115519</v>
+      </c>
+      <c r="I60">
+        <v>0.06168582413361006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0326075447644432</v>
+        <v>0.03321960531535031</v>
       </c>
       <c r="C61">
-        <v>-0.009573278355725313</v>
+        <v>-0.0127462874834175</v>
       </c>
       <c r="D61">
-        <v>0.0194079198029772</v>
+        <v>-0.03290302108665408</v>
       </c>
       <c r="E61">
-        <v>0.01579405457560161</v>
+        <v>0.0005932494723137983</v>
       </c>
       <c r="F61">
-        <v>0.03428615703239189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02302447286888021</v>
+      </c>
+      <c r="G61">
+        <v>0.04063987381775824</v>
+      </c>
+      <c r="H61">
+        <v>-0.01365178752885672</v>
+      </c>
+      <c r="I61">
+        <v>0.01709981062099352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.02437468684107616</v>
+        <v>0.02219910901452569</v>
       </c>
       <c r="C63">
-        <v>-0.0197836856560821</v>
+        <v>-0.001824929782120478</v>
       </c>
       <c r="D63">
-        <v>0.04456883987800406</v>
+        <v>-0.02255914633265873</v>
       </c>
       <c r="E63">
-        <v>0.01920426834603607</v>
+        <v>-0.001097114991176665</v>
       </c>
       <c r="F63">
-        <v>0.04391655945102451</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02124196402226001</v>
+      </c>
+      <c r="G63">
+        <v>0.03277922638673249</v>
+      </c>
+      <c r="H63">
+        <v>0.0527515826427966</v>
+      </c>
+      <c r="I63">
+        <v>-0.0006201226432937797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.04971408793346947</v>
+        <v>0.04809269805229992</v>
       </c>
       <c r="C64">
-        <v>-0.01016934490643682</v>
+        <v>-0.01509011954737508</v>
       </c>
       <c r="D64">
-        <v>0.0461483010397663</v>
+        <v>-0.04050970798172436</v>
       </c>
       <c r="E64">
-        <v>0.05959954119092245</v>
+        <v>0.009819319941052092</v>
       </c>
       <c r="F64">
-        <v>0.04367828707772802</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.02805511182412023</v>
+      </c>
+      <c r="G64">
+        <v>0.03592754820577133</v>
+      </c>
+      <c r="H64">
+        <v>0.03302557383098474</v>
+      </c>
+      <c r="I64">
+        <v>0.06058128816122094</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.006028261449468304</v>
+        <v>0.03747882054624287</v>
       </c>
       <c r="C65">
-        <v>-0.001519389579154965</v>
+        <v>0.002838914486602867</v>
       </c>
       <c r="D65">
-        <v>0.0001923600967763567</v>
+        <v>-0.02293288120093312</v>
       </c>
       <c r="E65">
-        <v>-0.005747945652102521</v>
+        <v>0.003505397913086891</v>
       </c>
       <c r="F65">
-        <v>0.001720536078923222</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.02336497134940238</v>
+      </c>
+      <c r="G65">
+        <v>0.008009135734432378</v>
+      </c>
+      <c r="H65">
+        <v>-0.04343217500654614</v>
+      </c>
+      <c r="I65">
+        <v>-0.00812913665386915</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.05019272485359552</v>
+        <v>0.0475048743255012</v>
       </c>
       <c r="C66">
-        <v>-0.02467388787596443</v>
+        <v>-0.01501487381214883</v>
       </c>
       <c r="D66">
-        <v>0.05917190931284343</v>
+        <v>-0.05887656542207932</v>
       </c>
       <c r="E66">
-        <v>0.02409603509803127</v>
+        <v>-0.01245774901122482</v>
       </c>
       <c r="F66">
-        <v>0.08452347648763692</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.0533688361434232</v>
+      </c>
+      <c r="G66">
+        <v>0.06767946339782167</v>
+      </c>
+      <c r="H66">
+        <v>-0.01986634981872342</v>
+      </c>
+      <c r="I66">
+        <v>0.01089136436267631</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02799837222094244</v>
+        <v>0.03523602242437514</v>
       </c>
       <c r="C67">
-        <v>-0.01727008606893329</v>
+        <v>-0.01283043512901843</v>
       </c>
       <c r="D67">
-        <v>-0.02197483766791389</v>
+        <v>0.00932852713611095</v>
       </c>
       <c r="E67">
-        <v>-0.01098696306923068</v>
+        <v>-0.001725342605075093</v>
       </c>
       <c r="F67">
-        <v>0.02818132041440611</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.002846502512433959</v>
+      </c>
+      <c r="G67">
+        <v>0.03603419819108735</v>
+      </c>
+      <c r="H67">
+        <v>0.008364036588593431</v>
+      </c>
+      <c r="I67">
+        <v>0.04936389804312579</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.06043967985867162</v>
+        <v>0.09305392446891787</v>
       </c>
       <c r="C68">
-        <v>-0.1137710755404465</v>
+        <v>0.02277193338698031</v>
       </c>
       <c r="D68">
-        <v>-0.1837071654075886</v>
+        <v>0.2339694113097072</v>
       </c>
       <c r="E68">
-        <v>-0.1215499056000622</v>
+        <v>-0.0347048169235397</v>
       </c>
       <c r="F68">
-        <v>-0.02411473839161311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.05535871377133868</v>
+      </c>
+      <c r="G68">
+        <v>0.001035868204521744</v>
+      </c>
+      <c r="H68">
+        <v>0.03957143985344354</v>
+      </c>
+      <c r="I68">
+        <v>-0.01764912663015656</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07389797556796888</v>
+        <v>0.06685661749036508</v>
       </c>
       <c r="C69">
-        <v>-0.03422755978143657</v>
+        <v>-0.02833907472178738</v>
       </c>
       <c r="D69">
-        <v>0.02209369426942281</v>
+        <v>-0.01559415137916522</v>
       </c>
       <c r="E69">
-        <v>-0.003954872494705864</v>
+        <v>-0.009437403857557036</v>
       </c>
       <c r="F69">
-        <v>-0.01062029897931776</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02546754085018347</v>
+      </c>
+      <c r="G69">
+        <v>-4.828526539895065e-05</v>
+      </c>
+      <c r="H69">
+        <v>0.04818516066056616</v>
+      </c>
+      <c r="I69">
+        <v>0.03402151795803588</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.05914026627492824</v>
+        <v>0.09014286880092642</v>
       </c>
       <c r="C71">
-        <v>-0.1360364677449056</v>
+        <v>0.01459187602521529</v>
       </c>
       <c r="D71">
-        <v>-0.2300108561844354</v>
+        <v>0.254027661983961</v>
       </c>
       <c r="E71">
-        <v>-0.2033300886102394</v>
+        <v>-0.04184356215160639</v>
       </c>
       <c r="F71">
-        <v>0.01211476889973514</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.07791608315385717</v>
+      </c>
+      <c r="G71">
+        <v>0.0177996030984758</v>
+      </c>
+      <c r="H71">
+        <v>0.01981973637829527</v>
+      </c>
+      <c r="I71">
+        <v>0.01748710151289787</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1235941944196036</v>
+        <v>0.1240560339835872</v>
       </c>
       <c r="C72">
-        <v>-0.09374854707569284</v>
+        <v>-0.05589001049338435</v>
       </c>
       <c r="D72">
-        <v>0.05316478056758044</v>
+        <v>-0.05107499128313613</v>
       </c>
       <c r="E72">
-        <v>0.03211385454188029</v>
+        <v>-0.01962238272195242</v>
       </c>
       <c r="F72">
-        <v>0.005985910616332219</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1003745599800571</v>
+      </c>
+      <c r="G72">
+        <v>0.1032439250401564</v>
+      </c>
+      <c r="H72">
+        <v>-0.0869841763270098</v>
+      </c>
+      <c r="I72">
+        <v>0.03231413138591808</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.250745598093154</v>
+        <v>0.2590175896489468</v>
       </c>
       <c r="C73">
-        <v>-0.124099441662549</v>
+        <v>-0.04237368848914285</v>
       </c>
       <c r="D73">
-        <v>-0.03218235704654376</v>
+        <v>0.0189928414165515</v>
       </c>
       <c r="E73">
-        <v>-0.1299403302849813</v>
+        <v>-0.1053181804584123</v>
       </c>
       <c r="F73">
-        <v>0.2721201711548723</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.002374863935816745</v>
+      </c>
+      <c r="G73">
+        <v>0.2696755081968196</v>
+      </c>
+      <c r="H73">
+        <v>-0.5384097729713179</v>
+      </c>
+      <c r="I73">
+        <v>0.01917062158126926</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1313704199616355</v>
+        <v>0.132313228575329</v>
       </c>
       <c r="C74">
-        <v>-0.03049233034088257</v>
+        <v>-0.05299919443667143</v>
       </c>
       <c r="D74">
-        <v>0.04094832394540897</v>
+        <v>-0.05511678766993048</v>
       </c>
       <c r="E74">
-        <v>0.0214666287174548</v>
+        <v>-0.008252923669702199</v>
       </c>
       <c r="F74">
-        <v>-0.08016027240681516</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.05736701067616705</v>
+      </c>
+      <c r="G74">
+        <v>-0.08000367159047388</v>
+      </c>
+      <c r="H74">
+        <v>-0.01275253788669495</v>
+      </c>
+      <c r="I74">
+        <v>0.01031343335529881</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2194003606688367</v>
+        <v>0.2416598412880772</v>
       </c>
       <c r="C75">
-        <v>-0.104546052301772</v>
+        <v>-0.09865514360595574</v>
       </c>
       <c r="D75">
-        <v>0.09083331644671401</v>
+        <v>-0.06544145207842475</v>
       </c>
       <c r="E75">
-        <v>0.0249796534937684</v>
+        <v>-0.03134001282676926</v>
       </c>
       <c r="F75">
-        <v>-0.1655318394723966</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1370752054803776</v>
+      </c>
+      <c r="G75">
+        <v>-0.1620284421206991</v>
+      </c>
+      <c r="H75">
+        <v>0.0108383326171644</v>
+      </c>
+      <c r="I75">
+        <v>-0.0007654791916397675</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2390856677803694</v>
+        <v>0.2354842800974392</v>
       </c>
       <c r="C76">
-        <v>-0.1159923970958106</v>
+        <v>-0.1025167603803165</v>
       </c>
       <c r="D76">
-        <v>0.03766049610330716</v>
+        <v>-0.05560718132534103</v>
       </c>
       <c r="E76">
-        <v>0.07926997594754523</v>
+        <v>0.01077152890905346</v>
       </c>
       <c r="F76">
-        <v>-0.164675210930473</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.142910407845863</v>
+      </c>
+      <c r="G76">
+        <v>-0.1786224073577957</v>
+      </c>
+      <c r="H76">
+        <v>0.02133020105447582</v>
+      </c>
+      <c r="I76">
+        <v>-0.05619901730943574</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1583372724736305</v>
+        <v>0.1052678065787868</v>
       </c>
       <c r="C77">
-        <v>0.02233229424472986</v>
+        <v>-0.01740223633573169</v>
       </c>
       <c r="D77">
-        <v>0.06786334286823649</v>
+        <v>-0.08071438702776766</v>
       </c>
       <c r="E77">
-        <v>-0.01460528413530608</v>
+        <v>-0.01249873901245262</v>
       </c>
       <c r="F77">
-        <v>0.2316311173720249</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.04038532232499836</v>
+      </c>
+      <c r="G77">
+        <v>0.1473859219725591</v>
+      </c>
+      <c r="H77">
+        <v>0.1904329234506351</v>
+      </c>
+      <c r="I77">
+        <v>-0.08796232760837817</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08396556728665183</v>
+        <v>0.05761164285107555</v>
       </c>
       <c r="C78">
-        <v>0.009311677465607073</v>
+        <v>-0.01611641853190829</v>
       </c>
       <c r="D78">
-        <v>0.07760839349078599</v>
+        <v>-0.06435214266596473</v>
       </c>
       <c r="E78">
-        <v>0.04620875140740995</v>
+        <v>0.001833088167490429</v>
       </c>
       <c r="F78">
-        <v>0.05234906098961874</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.03131490679919104</v>
+      </c>
+      <c r="G78">
+        <v>0.07600280680100359</v>
+      </c>
+      <c r="H78">
+        <v>0.02551831212042592</v>
+      </c>
+      <c r="I78">
+        <v>0.01678558758296933</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1586535827567326</v>
+        <v>0.1782686471107746</v>
       </c>
       <c r="C80">
-        <v>0.08570273855388578</v>
+        <v>-0.04972837970110056</v>
       </c>
       <c r="D80">
-        <v>-0.5518400999546316</v>
+        <v>0.0941304119555585</v>
       </c>
       <c r="E80">
-        <v>0.7833032465464407</v>
+        <v>0.9622494189515965</v>
       </c>
       <c r="F80">
-        <v>0.1339192982805877</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.03670283971350768</v>
+      </c>
+      <c r="G80">
+        <v>0.09492354761035891</v>
+      </c>
+      <c r="H80">
+        <v>-0.02671855422632639</v>
+      </c>
+      <c r="I80">
+        <v>0.02974143817321846</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1661080284330003</v>
+        <v>0.176379491837918</v>
       </c>
       <c r="C81">
-        <v>-0.08564074946714315</v>
+        <v>-0.07197627443455705</v>
       </c>
       <c r="D81">
-        <v>0.05277623454143281</v>
+        <v>-0.04333496801418643</v>
       </c>
       <c r="E81">
-        <v>0.03225087041377822</v>
+        <v>-0.01035733534495069</v>
       </c>
       <c r="F81">
-        <v>-0.1586280435332723</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1037859925126059</v>
+      </c>
+      <c r="G81">
+        <v>-0.1214695695672426</v>
+      </c>
+      <c r="H81">
+        <v>0.02032161397352823</v>
+      </c>
+      <c r="I81">
+        <v>-0.04622566811393694</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.0618430939460357</v>
+        <v>0.04473595170848169</v>
       </c>
       <c r="C83">
-        <v>0.0398816874775205</v>
+        <v>-0.0110164109174363</v>
       </c>
       <c r="D83">
-        <v>0.06388598158018206</v>
+        <v>-0.04271875320254128</v>
       </c>
       <c r="E83">
-        <v>0.005681059618193302</v>
+        <v>-0.01079389532461431</v>
       </c>
       <c r="F83">
-        <v>0.0560137784551895</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01625101775290318</v>
+      </c>
+      <c r="G83">
+        <v>0.05683151038050289</v>
+      </c>
+      <c r="H83">
+        <v>0.03069737436941285</v>
+      </c>
+      <c r="I83">
+        <v>0.02125364289333157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2132383291524851</v>
+        <v>0.226799696300391</v>
       </c>
       <c r="C85">
-        <v>-0.0632925767400595</v>
+        <v>-0.08569141045907724</v>
       </c>
       <c r="D85">
-        <v>0.0779197613780009</v>
+        <v>-0.09470910444841808</v>
       </c>
       <c r="E85">
-        <v>0.07605383885611036</v>
+        <v>-0.01368799357571674</v>
       </c>
       <c r="F85">
-        <v>-0.2111109797727429</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1254370196916229</v>
+      </c>
+      <c r="G85">
+        <v>-0.1815366806040106</v>
+      </c>
+      <c r="H85">
+        <v>0.02594451277797115</v>
+      </c>
+      <c r="I85">
+        <v>-0.02308929510572319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02277945796207821</v>
+        <v>0.01406213245402536</v>
       </c>
       <c r="C86">
-        <v>0.008313333823155012</v>
+        <v>0.004448365962946641</v>
       </c>
       <c r="D86">
-        <v>0.05995446361432982</v>
+        <v>-0.03678882441284819</v>
       </c>
       <c r="E86">
-        <v>0.01800482812460788</v>
+        <v>-0.00360102702521731</v>
       </c>
       <c r="F86">
-        <v>0.08222183472532085</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.003328696354347855</v>
+      </c>
+      <c r="G86">
+        <v>0.09468000003455508</v>
+      </c>
+      <c r="H86">
+        <v>0.06497981115563192</v>
+      </c>
+      <c r="I86">
+        <v>0.01771978244249785</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0190831122917201</v>
+        <v>0.02641023213029388</v>
       </c>
       <c r="C87">
-        <v>-0.03727747744508988</v>
+        <v>0.001518184073893516</v>
       </c>
       <c r="D87">
-        <v>-0.04405907147907544</v>
+        <v>0.01358985603143152</v>
       </c>
       <c r="E87">
-        <v>-0.03891444701942948</v>
+        <v>-0.002886285048942144</v>
       </c>
       <c r="F87">
-        <v>0.09486603692693049</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.001016567177196468</v>
+      </c>
+      <c r="G87">
+        <v>0.1044053082832006</v>
+      </c>
+      <c r="H87">
+        <v>-0.004688235922973891</v>
+      </c>
+      <c r="I87">
+        <v>-0.01692621949716266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.01153881013574609</v>
+        <v>0.03319964878250067</v>
       </c>
       <c r="C88">
-        <v>-0.01269667083291008</v>
+        <v>-0.007995045654847517</v>
       </c>
       <c r="D88">
-        <v>-0.00504925132644094</v>
+        <v>0.006249520645344668</v>
       </c>
       <c r="E88">
-        <v>0.02021882081644866</v>
+        <v>0.002458138001561359</v>
       </c>
       <c r="F88">
-        <v>0.00205006980249191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01388872530408353</v>
+      </c>
+      <c r="G88">
+        <v>-0.00312013730965403</v>
+      </c>
+      <c r="H88">
+        <v>0.02203798470447721</v>
+      </c>
+      <c r="I88">
+        <v>0.06443759541831058</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.09053581668655578</v>
+        <v>0.1506648639421121</v>
       </c>
       <c r="C89">
-        <v>-0.1320348131314024</v>
+        <v>0.02518146965944036</v>
       </c>
       <c r="D89">
-        <v>-0.2515141845694591</v>
+        <v>0.373701664600132</v>
       </c>
       <c r="E89">
-        <v>-0.2137341221756919</v>
+        <v>-0.0818162456632474</v>
       </c>
       <c r="F89">
-        <v>-0.006679623543091442</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.0977098812614845</v>
+      </c>
+      <c r="G89">
+        <v>-0.003868518338955996</v>
+      </c>
+      <c r="H89">
+        <v>0.09173291384392949</v>
+      </c>
+      <c r="I89">
+        <v>-0.004240444542701459</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.08062720205862771</v>
+        <v>0.1095116899926043</v>
       </c>
       <c r="C90">
-        <v>-0.1355415519106179</v>
+        <v>0.02160909655733938</v>
       </c>
       <c r="D90">
-        <v>-0.2587104808333343</v>
+        <v>0.3145217405631002</v>
       </c>
       <c r="E90">
-        <v>-0.1506030161606507</v>
+        <v>-0.04871087340550276</v>
       </c>
       <c r="F90">
-        <v>-0.01391466382659096</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.0847505307838279</v>
+      </c>
+      <c r="G90">
+        <v>-0.03826486309545399</v>
+      </c>
+      <c r="H90">
+        <v>0.06317250043711142</v>
+      </c>
+      <c r="I90">
+        <v>0.001178104527774077</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2782247095407034</v>
+        <v>0.2685223629657927</v>
       </c>
       <c r="C91">
-        <v>-0.07424615436470126</v>
+        <v>-0.1090402109079029</v>
       </c>
       <c r="D91">
-        <v>0.1024024309862262</v>
+        <v>-0.1070632935339176</v>
       </c>
       <c r="E91">
-        <v>0.07134621374608542</v>
+        <v>-0.02110860370508311</v>
       </c>
       <c r="F91">
-        <v>-0.2549868169496093</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.124125137708377</v>
+      </c>
+      <c r="G91">
+        <v>-0.2363104251504507</v>
+      </c>
+      <c r="H91">
+        <v>0.04285217433715849</v>
+      </c>
+      <c r="I91">
+        <v>-0.05668856449997724</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1245500336712258</v>
+        <v>0.1867534900593226</v>
       </c>
       <c r="C92">
-        <v>-0.1123316463387236</v>
+        <v>-0.04626869041176066</v>
       </c>
       <c r="D92">
-        <v>-0.2745705417431986</v>
+        <v>0.3259202842693129</v>
       </c>
       <c r="E92">
-        <v>-0.1430617878853159</v>
+        <v>-0.03766082571101736</v>
       </c>
       <c r="F92">
-        <v>-0.03572732269952234</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.08240727219336254</v>
+      </c>
+      <c r="G92">
+        <v>-0.08957683384496261</v>
+      </c>
+      <c r="H92">
+        <v>0.1838959001211982</v>
+      </c>
+      <c r="I92">
+        <v>0.005214027191139875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.07681978830676801</v>
+        <v>0.1362430837787964</v>
       </c>
       <c r="C93">
-        <v>-0.1295930193719583</v>
+        <v>0.01911053194957699</v>
       </c>
       <c r="D93">
-        <v>-0.3163710529842543</v>
+        <v>0.3759608466267805</v>
       </c>
       <c r="E93">
-        <v>-0.2037081164490149</v>
+        <v>-0.06872254134723522</v>
       </c>
       <c r="F93">
-        <v>-0.04818418085631145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1332466657143103</v>
+      </c>
+      <c r="G93">
+        <v>-0.04939876902750569</v>
+      </c>
+      <c r="H93">
+        <v>0.00995428199618895</v>
+      </c>
+      <c r="I93">
+        <v>0.03145923957769363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2541796018940876</v>
+        <v>0.2844040045270238</v>
       </c>
       <c r="C94">
-        <v>-0.1194052858152861</v>
+        <v>-0.09440760824492302</v>
       </c>
       <c r="D94">
-        <v>-0.008279704218144604</v>
+        <v>-0.02573624054136628</v>
       </c>
       <c r="E94">
-        <v>0.01752366025676987</v>
+        <v>-0.0438675818056426</v>
       </c>
       <c r="F94">
-        <v>-0.3042990067656817</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1435111514987981</v>
+      </c>
+      <c r="G94">
+        <v>-0.2683313429459128</v>
+      </c>
+      <c r="H94">
+        <v>0.03380901554679557</v>
+      </c>
+      <c r="I94">
+        <v>-0.1954221753880998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1447819079432758</v>
+        <v>0.1080010385299313</v>
       </c>
       <c r="C95">
-        <v>0.007389108143349218</v>
+        <v>-0.05721076579714542</v>
       </c>
       <c r="D95">
-        <v>0.2053191192436739</v>
+        <v>-0.08617928527646469</v>
       </c>
       <c r="E95">
-        <v>0.07301880795071831</v>
+        <v>-0.08173903962195488</v>
       </c>
       <c r="F95">
-        <v>-0.281356873346318</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03789778662716945</v>
+      </c>
+      <c r="G95">
+        <v>-1.526285159560744e-05</v>
+      </c>
+      <c r="H95">
+        <v>0.1859178700214121</v>
+      </c>
+      <c r="I95">
+        <v>0.8419941219806574</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1857403825313</v>
+        <v>0.191061344338953</v>
       </c>
       <c r="C98">
-        <v>-0.06404673182132628</v>
+        <v>-0.06188858414758348</v>
       </c>
       <c r="D98">
-        <v>-0.01573937539099281</v>
+        <v>0.026465493558492</v>
       </c>
       <c r="E98">
-        <v>-0.1076835012352081</v>
+        <v>-0.07390380271071748</v>
       </c>
       <c r="F98">
-        <v>0.1395558982884112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.02056742834735711</v>
+      </c>
+      <c r="G98">
+        <v>0.205714148915995</v>
+      </c>
+      <c r="H98">
+        <v>-0.3851216286837811</v>
+      </c>
+      <c r="I98">
+        <v>0.01433458327208327</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3597,130 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.00077769645950447</v>
+        <v>0.01371098951182332</v>
       </c>
       <c r="C101">
-        <v>-0.0158465505729004</v>
+        <v>0.0002178564251237449</v>
       </c>
       <c r="D101">
-        <v>0.05982773265232876</v>
+        <v>-0.02200949882650849</v>
       </c>
       <c r="E101">
-        <v>0.04774114949398544</v>
+        <v>0.003563609444906492</v>
       </c>
       <c r="F101">
-        <v>0.03685591902010587</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03612231876127763</v>
+      </c>
+      <c r="G101">
+        <v>0.07994117299759691</v>
+      </c>
+      <c r="H101">
+        <v>0.1215670744027049</v>
+      </c>
+      <c r="I101">
+        <v>-0.03310900852960408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.08910675356873808</v>
+        <v>0.11472426860554</v>
       </c>
       <c r="C102">
-        <v>-0.02581915734931309</v>
+        <v>-0.03506585282920749</v>
       </c>
       <c r="D102">
-        <v>0.04601125079110516</v>
+        <v>-0.04654547226870196</v>
       </c>
       <c r="E102">
-        <v>0.05828107180420001</v>
+        <v>0.0005527516310090167</v>
       </c>
       <c r="F102">
-        <v>-0.1097583310422613</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.0689730517932023</v>
+      </c>
+      <c r="G102">
+        <v>-0.1153654761564083</v>
+      </c>
+      <c r="H102">
+        <v>0.006195920297970259</v>
+      </c>
+      <c r="I102">
+        <v>-0.009732221313458253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01909612397758325</v>
+        <v>0.02551106648656486</v>
       </c>
       <c r="C103">
-        <v>-0.01241047690317081</v>
+        <v>-0.00889719676955889</v>
       </c>
       <c r="D103">
-        <v>0.0008548830021765228</v>
+        <v>-0.006599059643499587</v>
       </c>
       <c r="E103">
-        <v>0.006323987334725584</v>
+        <v>0.006714504894327978</v>
       </c>
       <c r="F103">
-        <v>-0.03226698816902464</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01685672710624976</v>
+      </c>
+      <c r="G103">
+        <v>-0.01634216500447722</v>
+      </c>
+      <c r="H103">
+        <v>0.01642061761686165</v>
+      </c>
+      <c r="I103">
+        <v>0.004244934210858453</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2336900821192792</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9492859435407199</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.06387644105886928</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02085523121754998</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1687790670093734</v>
+      </c>
+      <c r="G104">
+        <v>-0.0388134034630221</v>
+      </c>
+      <c r="H104">
+        <v>0.0009457047855277759</v>
+      </c>
+      <c r="I104">
+        <v>0.00344131281527912</v>
       </c>
     </row>
   </sheetData>
